--- a/resources/БАЗА ДАННЫХ/litefinance hrefs.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance hrefs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\traiding\site_scraper\resources\БАЗА ДАННЫХ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\traiding\sites_scraper\resources\БАЗА ДАННЫХ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9776AC-5F3B-4691-A445-284CBE691A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87695D3-9484-4C5A-A55E-BE45D9D33FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="960" windowWidth="17490" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -253,10 +253,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,13 +287,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,116 +588,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -694,145 +705,145 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,7 +912,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0DEB3654-06F4-4A8C-82D4-23AABDA81B03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/БАЗА ДАННЫХ/litefinance hrefs.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance hrefs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\traiding\sites_scraper\resources\БАЗА ДАННЫХ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\traiding\site_scraper\resources\БАЗА ДАННЫХ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87695D3-9484-4C5A-A55E-BE45D9D33FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43A728-CC20-4797-8A99-0E08D6E669BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="960" windowWidth="17490" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -577,13 +577,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
